--- a/P3.xlsx
+++ b/P3.xlsx
@@ -13,7 +13,9 @@
     <sheet name="Calculus" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="Statistics" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
-  <definedNames/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Statistics'!$A$1:$D$139</definedName>
+  </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
@@ -4212,6 +4214,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D139"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>